--- a/03_AD/MHRO/MHRO_RNAV_FINALES.xlsx
+++ b/03_AD/MHRO/MHRO_RNAV_FINALES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\mxd_versioned\03_AD\MHRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\MXD_AIP_HONDURAS\03_AD\MHRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="111">
   <si>
     <t>-</t>
   </si>
@@ -261,16 +261,10 @@
 Specification</t>
   </si>
   <si>
-    <t>0º14'W</t>
-  </si>
-  <si>
     <t>RNP APCH</t>
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>0º16'W</t>
   </si>
   <si>
     <t>010</t>
@@ -308,6 +302,75 @@
   </si>
   <si>
     <t>RO007</t>
+  </si>
+  <si>
+    <t>1º00'W</t>
+  </si>
+  <si>
+    <t>RO004</t>
+  </si>
+  <si>
+    <t>RO005</t>
+  </si>
+  <si>
+    <t>RW07</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>+4 000</t>
+  </si>
+  <si>
+    <t>+2 300</t>
+  </si>
+  <si>
+    <t>@70</t>
+  </si>
+  <si>
+    <t>+1 200</t>
+  </si>
+  <si>
+    <t>-3.0°/50'</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TABULAR DESCRIPTION</t>
+  </si>
+  <si>
+    <t>WAYPOINT LIST</t>
+  </si>
+  <si>
+    <t>161553.75N</t>
+  </si>
+  <si>
+    <t>0863833.12W</t>
+  </si>
+  <si>
+    <t>161643.27N</t>
+  </si>
+  <si>
+    <t>0863639.39W</t>
+  </si>
+  <si>
+    <t>1618.77N</t>
+  </si>
+  <si>
+    <t>08631.91W</t>
+  </si>
+  <si>
+    <t>161119.06N</t>
+  </si>
+  <si>
+    <t>0863625.13W</t>
+  </si>
+  <si>
+    <t>162028.42N</t>
+  </si>
+  <si>
+    <t>0864041.21W</t>
   </si>
 </sst>
 </file>
@@ -362,7 +425,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,12 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -517,9 +574,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -555,17 +609,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3177,781 +3244,1122 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="2" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+    </row>
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="36">
+        <v>250</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="36" t="str">
+        <f>S6</f>
+        <v>156.7 (155.7)</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="35">
+        <v>5</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="36">
+        <v>165</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="31">
+        <v>155.74968999999999</v>
+      </c>
+      <c r="O6" s="30" t="str">
+        <f>MID(F5,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="30" t="str">
+        <f>MID(F5,3,2)</f>
+        <v>00</v>
+      </c>
+      <c r="Q6" s="30">
+        <f>-(O6+P6/60)</f>
+        <v>-1</v>
+      </c>
+      <c r="R6" s="30">
+        <f>N6-Q6</f>
+        <v>156.74968999999999</v>
+      </c>
+      <c r="S6" s="30" t="str">
+        <f>TEXT(R6,"000.0")&amp;TEXT(N6," (000.0)")</f>
+        <v>156.7 (155.7)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="33"/>
+    </row>
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="36">
+        <v>250</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36" t="str">
+        <f>S9</f>
+        <v>066.7 (065.7)</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="35">
+        <v>5</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="36">
+        <v>165</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="31">
+        <v>65.705129999999997</v>
+      </c>
+      <c r="O9" s="30" t="str">
+        <f>MID(F8,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="30" t="str">
+        <f>MID(F8,3,2)</f>
+        <v>00</v>
+      </c>
+      <c r="Q9" s="30">
+        <f>-(O9+P9/60)</f>
+        <v>-1</v>
+      </c>
+      <c r="R9" s="30">
+        <f>N9-Q9</f>
+        <v>66.705129999999997</v>
+      </c>
+      <c r="S9" s="30" t="str">
+        <f>TEXT(R9,"000.0")&amp;TEXT(N9," (000.0)")</f>
+        <v>066.7 (065.7)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="36">
+        <v>250</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36" t="str">
+        <f>S12</f>
+        <v>336.8 (335.8)</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="35">
+        <v>5</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="36">
+        <v>165</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="31">
+        <v>335.76952999999997</v>
+      </c>
+      <c r="O12" s="30" t="str">
+        <f>MID(F11,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="30" t="str">
+        <f>MID(F11,3,2)</f>
+        <v>00</v>
+      </c>
+      <c r="Q12" s="30">
+        <f>-(O12+P12/60)</f>
+        <v>-1</v>
+      </c>
+      <c r="R12" s="30">
+        <f>N12-Q12</f>
+        <v>336.76952999999997</v>
+      </c>
+      <c r="S12" s="30" t="str">
+        <f>TEXT(R12,"000.0")&amp;TEXT(N12," (000.0)")</f>
+        <v>336.8 (335.8)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="36">
+        <v>165</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="36" t="str">
+        <f>S15</f>
+        <v>066.7 (065.7)</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="35">
+        <v>2</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="37">
+        <v>1660</v>
+      </c>
+      <c r="J15" s="36">
+        <v>165</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="31">
+        <v>65.730350000000001</v>
+      </c>
+      <c r="O15" s="30" t="str">
+        <f>MID(F14,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="30" t="str">
+        <f>MID(F14,3,2)</f>
+        <v>00</v>
+      </c>
+      <c r="Q15" s="30">
+        <f>-(O15+P15/60)</f>
+        <v>-1</v>
+      </c>
+      <c r="R15" s="30">
+        <f>N15-Q15</f>
+        <v>66.730350000000001</v>
+      </c>
+      <c r="S15" s="30" t="str">
+        <f>TEXT(R15,"000.0")&amp;TEXT(N15," (000.0)")</f>
+        <v>066.7 (065.7)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="36" t="str">
+        <f>S16</f>
+        <v>066.9 (065.9)</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="35">
+        <v>5</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="36">
+        <v>165</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="31">
+        <v>65.906970000000001</v>
+      </c>
+      <c r="O16" s="30" t="str">
+        <f>MID(F15,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="30" t="str">
+        <f>MID(F15,3,2)</f>
+        <v>00</v>
+      </c>
+      <c r="Q16" s="30">
+        <f>-(O16+P16/60)</f>
+        <v>-1</v>
+      </c>
+      <c r="R16" s="30">
+        <f>N16-Q16</f>
+        <v>66.906970000000001</v>
+      </c>
+      <c r="S16" s="30" t="str">
+        <f>TEXT(R16,"000.0")&amp;TEXT(N16," (000.0)")</f>
+        <v>066.9 (065.9)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-    </row>
-    <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="B17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="36" t="str">
+        <f>S17</f>
+        <v>066.9 (065.9)</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="36">
+        <v>165</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="31">
+        <v>65.906970000000001</v>
+      </c>
+      <c r="O17" s="30" t="str">
+        <f>MID(F16,1,1)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="P17" s="30" t="str">
+        <f>MID(F16,3,2)</f>
+        <v>00</v>
+      </c>
+      <c r="Q17" s="30">
+        <f>-(O17+P17/60)</f>
+        <v>-1</v>
+      </c>
+      <c r="R17" s="30">
+        <f>N17-Q17</f>
+        <v>66.906970000000001</v>
+      </c>
+      <c r="S17" s="30" t="str">
+        <f>TEXT(R17,"000.0")&amp;TEXT(N17," (000.0)")</f>
+        <v>066.9 (065.9)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="36">
+        <v>250</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="30" t="str">
+        <f>MID(F17,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P18" s="30" t="str">
+        <f>MID(F17,3,2)</f>
+        <v>00</v>
+      </c>
+      <c r="Q18" s="30">
+        <f>-(O18+P18/60)</f>
+        <v>-1</v>
+      </c>
+      <c r="R18" s="30" t="e">
+        <f>N18-Q18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S18" s="30" t="e">
+        <f>TEXT(R18,"000.0")&amp;TEXT(N18," (000.0)")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="36">
-        <v>8000</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="B22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="35" t="str">
-        <f>S4</f>
-        <v>156.6 (156.4)</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="38">
-        <v>13.23</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="36">
-        <v>4000</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="32">
-        <v>156.4</v>
-      </c>
-      <c r="O4" s="31" t="str">
-        <f>MID(F3,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="31" t="str">
-        <f>MID(F3,3,2)</f>
-        <v>14</v>
-      </c>
-      <c r="Q4" s="31">
-        <f>-(O4+P4/60)</f>
-        <v>-0.23333333333333334</v>
-      </c>
-      <c r="R4" s="31">
-        <f>N4-Q4</f>
-        <v>156.63333333333333</v>
-      </c>
-      <c r="S4" s="31" t="str">
-        <f>TEXT(R4,"000.0")&amp;TEXT(N4," (000.0)")</f>
-        <v>156.6 (156.4)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="36">
-        <v>8000</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="35" t="str">
-        <f>S7</f>
-        <v>156.6 (156.4)</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="38">
-        <v>13.23</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="36">
-        <v>4000</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="32">
-        <v>156.4</v>
-      </c>
-      <c r="O7" s="31" t="str">
-        <f>MID(F6,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="31" t="str">
-        <f>MID(F6,3,2)</f>
-        <v>14</v>
-      </c>
-      <c r="Q7" s="31">
-        <f>-(O7+P7/60)</f>
-        <v>-0.23333333333333334</v>
-      </c>
-      <c r="R7" s="31">
-        <f>N7-Q7</f>
-        <v>156.63333333333333</v>
-      </c>
-      <c r="S7" s="31" t="str">
-        <f>TEXT(R7,"000.0")&amp;TEXT(N7," (000.0)")</f>
-        <v>156.6 (156.4)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
-        <v>8000</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="35" t="str">
-        <f>S10</f>
-        <v>156.6 (156.4)</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="38">
-        <v>13.23</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="36">
-        <v>4000</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="32">
-        <v>156.4</v>
-      </c>
-      <c r="O10" s="31" t="str">
-        <f>MID(F9,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="31" t="str">
-        <f>MID(F9,3,2)</f>
-        <v>14</v>
-      </c>
-      <c r="Q10" s="31">
-        <f>-(O10+P10/60)</f>
-        <v>-0.23333333333333334</v>
-      </c>
-      <c r="R10" s="31">
-        <f>N10-Q10</f>
-        <v>156.63333333333333</v>
-      </c>
-      <c r="S10" s="31" t="str">
-        <f>TEXT(R10,"000.0")&amp;TEXT(N10," (000.0)")</f>
-        <v>156.6 (156.4)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
-        <v>8000</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="35" t="str">
-        <f>S13</f>
-        <v>156.6 (156.4)</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="38">
-        <v>13.23</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="36">
-        <v>4000</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="32">
-        <v>156.4</v>
-      </c>
-      <c r="O13" s="31" t="str">
-        <f>MID(F12,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="31" t="str">
-        <f>MID(F12,3,2)</f>
-        <v>14</v>
-      </c>
-      <c r="Q13" s="31">
-        <f>-(O13+P13/60)</f>
-        <v>-0.23333333333333334</v>
-      </c>
-      <c r="R13" s="31">
-        <f>N13-Q13</f>
-        <v>156.63333333333333</v>
-      </c>
-      <c r="S13" s="31" t="str">
-        <f>TEXT(R13,"000.0")&amp;TEXT(N13," (000.0)")</f>
-        <v>156.6 (156.4)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="35" t="str">
-        <f>S14</f>
-        <v>156.7 (156.4)</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="38">
-        <v>13.23</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="36">
-        <v>4000</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="32">
-        <v>156.4</v>
-      </c>
-      <c r="O14" s="31" t="str">
-        <f>MID(F13,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="31" t="str">
-        <f>MID(F13,3,2)</f>
-        <v>16</v>
-      </c>
-      <c r="Q14" s="31">
-        <f>-(O14+P14/60)</f>
-        <v>-0.26666666666666666</v>
-      </c>
-      <c r="R14" s="31">
-        <f>N14-Q14</f>
-        <v>156.66666666666669</v>
-      </c>
-      <c r="S14" s="31" t="str">
-        <f>TEXT(R14,"000.0")&amp;TEXT(N14," (000.0)")</f>
-        <v>156.7 (156.4)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="35" t="str">
-        <f>S15</f>
-        <v>156.7 (156.4)</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="38">
-        <v>13.23</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="36">
-        <v>4000</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="32">
-        <v>156.4</v>
-      </c>
-      <c r="O15" s="31" t="str">
-        <f>MID(F14,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="31" t="str">
-        <f>MID(F14,3,2)</f>
-        <v>16</v>
-      </c>
-      <c r="Q15" s="31">
-        <f>-(O15+P15/60)</f>
-        <v>-0.26666666666666666</v>
-      </c>
-      <c r="R15" s="31">
-        <f>N15-Q15</f>
-        <v>156.66666666666669</v>
-      </c>
-      <c r="S15" s="31" t="str">
-        <f>TEXT(R15,"000.0")&amp;TEXT(N15," (000.0)")</f>
-        <v>156.7 (156.4)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="B25" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="35" t="str">
-        <f>S16</f>
-        <v>156.7 (156.4)</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="38">
-        <v>13.23</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="36">
-        <v>4000</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="32">
-        <v>156.4</v>
-      </c>
-      <c r="O16" s="31" t="str">
-        <f>MID(F15,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="31" t="str">
-        <f>MID(F15,3,2)</f>
-        <v>16</v>
-      </c>
-      <c r="Q16" s="31">
-        <f>-(O16+P16/60)</f>
-        <v>-0.26666666666666666</v>
-      </c>
-      <c r="R16" s="31">
-        <f>N16-Q16</f>
-        <v>156.66666666666669</v>
-      </c>
-      <c r="S16" s="31" t="str">
-        <f>TEXT(R16,"000.0")&amp;TEXT(N16," (000.0)")</f>
-        <v>156.7 (156.4)</v>
-      </c>
+      <c r="B27" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A5:A18" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>